--- a/PaperWork/UCI/uci_params.xlsx
+++ b/PaperWork/UCI/uci_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GACHON\Desktop\AiStudy\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ECC530-656A-4ACB-9D02-C6E2CD6A1485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8237A3FE-D4F1-4A7F-9E5C-E1F3085F105A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6AA9A34-C728-4BB6-80D0-B8A90520AC12}"/>
+    <workbookView xWindow="-1725" yWindow="390" windowWidth="16695" windowHeight="15360" xr2:uid="{C6AA9A34-C728-4BB6-80D0-B8A90520AC12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="20">
   <si>
     <t>Default Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -698,50 +698,71 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1065,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BE6B95-A525-4FD1-898D-B0917CECD395}">
-  <dimension ref="A1:K144"/>
+  <dimension ref="A1:K175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="B127" workbookViewId="0">
+      <selection activeCell="K143" sqref="K143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1094,19 +1115,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="36"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="44">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="36"/>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="44">
         <v>2</v>
       </c>
     </row>
@@ -1129,11 +1150,11 @@
     </row>
     <row r="7" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="E8" s="55" t="s">
+      <c r="C8" s="55"/>
+      <c r="E8" s="49" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="9">
@@ -1290,11 +1311,11 @@
     <row r="14" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="E18" s="55" t="s">
+      <c r="C18" s="55"/>
+      <c r="E18" s="49" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="9">
@@ -1451,11 +1472,11 @@
     <row r="24" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="E28" s="55" t="s">
+      <c r="C28" s="55"/>
+      <c r="E28" s="49" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="9">
@@ -1612,11 +1633,11 @@
     <row r="34" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="E38" s="55" t="s">
+      <c r="C38" s="55"/>
+      <c r="E38" s="49" t="s">
         <v>1</v>
       </c>
       <c r="F38" s="9">
@@ -1773,11 +1794,11 @@
     <row r="44" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="44"/>
-      <c r="E48" s="55" t="s">
+      <c r="C48" s="55"/>
+      <c r="E48" s="49" t="s">
         <v>2</v>
       </c>
       <c r="F48" s="9">
@@ -1953,11 +1974,11 @@
     <row r="54" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="58" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="44"/>
-      <c r="E58" s="55" t="s">
+      <c r="C58" s="55"/>
+      <c r="E58" s="49" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="9">
@@ -2133,11 +2154,11 @@
     <row r="64" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="44"/>
-      <c r="E68" s="55" t="s">
+      <c r="C68" s="55"/>
+      <c r="E68" s="49" t="s">
         <v>3</v>
       </c>
       <c r="F68" s="9">
@@ -2313,11 +2334,11 @@
     <row r="74" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="78" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="43" t="s">
+      <c r="B78" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="44"/>
-      <c r="E78" s="55" t="s">
+      <c r="C78" s="55"/>
+      <c r="E78" s="49" t="s">
         <v>3</v>
       </c>
       <c r="F78" s="9">
@@ -2493,11 +2514,11 @@
     <row r="84" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="87" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="43" t="s">
+      <c r="B88" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C88" s="44"/>
-      <c r="E88" s="55" t="s">
+      <c r="C88" s="55"/>
+      <c r="E88" s="49" t="s">
         <v>13</v>
       </c>
       <c r="F88" s="9">
@@ -2654,11 +2675,11 @@
     <row r="94" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="98" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="43" t="s">
+      <c r="B98" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C98" s="44"/>
-      <c r="E98" s="55" t="s">
+      <c r="C98" s="55"/>
+      <c r="E98" s="49" t="s">
         <v>13</v>
       </c>
       <c r="F98" s="9">
@@ -2815,11 +2836,11 @@
     <row r="104" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="107" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="108" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="43" t="s">
+      <c r="B108" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C108" s="44"/>
-      <c r="E108" s="55" t="s">
+      <c r="C108" s="55"/>
+      <c r="E108" s="49" t="s">
         <v>12</v>
       </c>
       <c r="F108" s="9">
@@ -2976,11 +2997,11 @@
     <row r="114" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="117" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="118" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="43" t="s">
+      <c r="B118" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C118" s="44"/>
-      <c r="E118" s="55" t="s">
+      <c r="C118" s="55"/>
+      <c r="E118" s="49" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="9">
@@ -3137,11 +3158,11 @@
     <row r="124" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="127" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="128" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="43" t="s">
+      <c r="B128" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C128" s="44"/>
-      <c r="E128" s="55" t="s">
+      <c r="C128" s="55"/>
+      <c r="E128" s="49" t="s">
         <v>12</v>
       </c>
       <c r="F128" s="9">
@@ -3296,72 +3317,558 @@
       </c>
     </row>
     <row r="134" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="135" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="136" spans="2:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="51" t="s">
+    <row r="137" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" s="55"/>
+      <c r="E138" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F138" s="9">
+        <v>32</v>
+      </c>
+      <c r="G138" s="9">
+        <v>64</v>
+      </c>
+      <c r="H138" s="9">
+        <v>128</v>
+      </c>
+      <c r="I138" s="9">
+        <v>256</v>
+      </c>
+      <c r="J138" s="10">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B139" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="3">
+        <v>128</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F139" s="8">
+        <v>205132</v>
+      </c>
+      <c r="G139" s="8">
+        <v>219180</v>
+      </c>
+      <c r="H139" s="16">
+        <v>247276</v>
+      </c>
+      <c r="I139" s="16">
+        <v>303468</v>
+      </c>
+      <c r="J139" s="13">
+        <v>415852</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B140" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="3">
+        <v>6</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" s="4">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="G140" s="4">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="H140" s="1">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="I140" s="1">
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="J140" s="5">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="3">
+        <v>3</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="4">
+        <v>0.89090000000000003</v>
+      </c>
+      <c r="G141" s="4">
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="J141" s="5">
+        <v>0.90090000000000003</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B142" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" s="3">
+        <v>150</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="4">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="G142" s="4">
+        <v>0.89649999999999996</v>
+      </c>
+      <c r="H142" s="1">
+        <v>0.90059999999999996</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0.9002</v>
+      </c>
+      <c r="J142" s="5">
+        <v>0.90869999999999995</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B143" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" s="15">
+        <v>150</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="6">
+        <f>AVERAGE(F140:F142)</f>
+        <v>0.90056666666666674</v>
+      </c>
+      <c r="G143" s="6">
+        <f>AVERAGE(G140:G142)</f>
+        <v>0.90920000000000012</v>
+      </c>
+      <c r="H143" s="17">
+        <f>AVERAGE(H140:H142)</f>
+        <v>0.90993333333333337</v>
+      </c>
+      <c r="I143" s="17">
+        <f>AVERAGE(I140:I142)</f>
+        <v>0.9126333333333333</v>
+      </c>
+      <c r="J143" s="6">
+        <f>AVERAGE(J140:J142)</f>
+        <v>0.9005333333333333</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="147" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="148" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" s="55"/>
+      <c r="E148" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F148" s="9">
+        <v>32</v>
+      </c>
+      <c r="G148" s="9">
+        <v>64</v>
+      </c>
+      <c r="H148" s="9">
+        <v>128</v>
+      </c>
+      <c r="I148" s="9">
+        <v>256</v>
+      </c>
+      <c r="J148" s="10">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B149" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="3">
+        <v>128</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149" s="8">
+        <v>152716</v>
+      </c>
+      <c r="G149" s="16">
+        <v>184236</v>
+      </c>
+      <c r="H149" s="8">
+        <v>247276</v>
+      </c>
+      <c r="I149" s="16">
+        <v>373356</v>
+      </c>
+      <c r="J149" s="13">
+        <v>625516</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B150" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="3">
+        <v>6</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150" s="4">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="G150" s="1">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="H150" s="4">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="I150" s="1">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="J150" s="5">
+        <v>0.91420000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B151" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="3">
+        <v>3</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" s="4">
+        <v>0.90529999999999999</v>
+      </c>
+      <c r="G151" s="1">
+        <v>0.89890000000000003</v>
+      </c>
+      <c r="H151" s="4">
+        <v>0.90110000000000001</v>
+      </c>
+      <c r="I151" s="1">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="J151" s="5">
+        <v>0.90690000000000004</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B152" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="3">
+        <v>150</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" s="4">
+        <v>0.89980000000000004</v>
+      </c>
+      <c r="G152" s="1">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="H152" s="4">
+        <v>0.90649999999999997</v>
+      </c>
+      <c r="I152" s="1">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="J152" s="5">
+        <v>0.89019999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B153" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="15">
+        <v>150</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="6">
+        <f>AVERAGE(F150:F152)</f>
+        <v>0.90540000000000009</v>
+      </c>
+      <c r="G153" s="17">
+        <f>AVERAGE(G150:G152)</f>
+        <v>0.91023333333333334</v>
+      </c>
+      <c r="H153" s="6">
+        <f>AVERAGE(H150:H152)</f>
+        <v>0.90526666666666655</v>
+      </c>
+      <c r="I153" s="17">
+        <f>AVERAGE(I150:I152)</f>
+        <v>0.90816666666666668</v>
+      </c>
+      <c r="J153" s="6">
+        <f>AVERAGE(J150:J152)</f>
+        <v>0.90376666666666672</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="158" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="55"/>
+      <c r="E158" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F158" s="9">
+        <v>32</v>
+      </c>
+      <c r="G158" s="9">
+        <v>64</v>
+      </c>
+      <c r="H158" s="9">
+        <v>128</v>
+      </c>
+      <c r="I158" s="9">
+        <v>256</v>
+      </c>
+      <c r="J158" s="10">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B159" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="3">
+        <v>256</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F159" s="8">
+        <v>172044</v>
+      </c>
+      <c r="G159" s="16">
+        <v>215852</v>
+      </c>
+      <c r="H159" s="16">
+        <v>303468</v>
+      </c>
+      <c r="I159" s="20">
+        <v>478700</v>
+      </c>
+      <c r="J159" s="13">
+        <v>829164</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B160" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" s="3">
+        <v>6</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" s="4">
+        <v>0.91359999999999997</v>
+      </c>
+      <c r="G160" s="1">
+        <v>0.91369999999999996</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="I160" s="21">
+        <v>0.90849999999999997</v>
+      </c>
+      <c r="J160" s="5">
+        <v>0.91590000000000005</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B161" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="3">
+        <v>3</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" s="4">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="G161" s="1">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="H161" s="1">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="I161" s="21">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="J161" s="5">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B162" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" s="3">
+        <v>150</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" s="4">
+        <v>0.89349999999999996</v>
+      </c>
+      <c r="G162" s="1">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="H162" s="1">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="I162" s="21">
+        <v>0.90529999999999999</v>
+      </c>
+      <c r="J162" s="5">
+        <v>0.90659999999999996</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B163" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" s="15">
+        <v>150</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" s="6">
+        <f>AVERAGE(F160:F162)</f>
+        <v>0.90370000000000006</v>
+      </c>
+      <c r="G163" s="17">
+        <f>AVERAGE(G160:G162)</f>
+        <v>0.90953333333333342</v>
+      </c>
+      <c r="H163" s="17">
+        <f>AVERAGE(H160:H162)</f>
+        <v>0.91326666666666656</v>
+      </c>
+      <c r="I163" s="22">
+        <f>AVERAGE(I160:I162)</f>
+        <v>0.90883333333333327</v>
+      </c>
+      <c r="J163" s="6">
+        <f>AVERAGE(J160:J162)</f>
+        <v>0.90783333333333338</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="166" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="167" spans="2:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B167" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C136" s="52"/>
-    </row>
-    <row r="137" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="53" t="s">
+      <c r="C167" s="51"/>
+    </row>
+    <row r="168" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C137" s="54"/>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B138" s="47" t="s">
+      <c r="C168" s="53"/>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B169" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C138" s="48">
+      <c r="C169" s="46">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B170" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="46">
         <v>128</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B139" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C139" s="48">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B140" s="47" t="s">
+    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B171" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C140" s="48">
+      <c r="C171" s="46">
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B141" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C141" s="48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B142" s="47" t="s">
+    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B172" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" s="46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B173" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C142" s="48">
+      <c r="C173" s="46">
         <v>150</v>
       </c>
     </row>
-    <row r="143" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="49" t="s">
+    <row r="174" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B174" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C143" s="50">
+      <c r="C174" s="48">
         <v>150</v>
       </c>
     </row>
-    <row r="144" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="175" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:C137"/>
+  <mergeCells count="18">
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B28:C28"/>
@@ -3378,6 +3885,21 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F9:J13">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>"LARGE($F$9:$J$9,1) or LARGE($F$9:$J$9,2)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F139:J143">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>"LARGE($F$9:$J$9,1) or LARGE($F$9:$J$9,2)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F149:J153">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>"LARGE($F$9:$J$9,1) or LARGE($F$9:$J$9,2)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F159:J163">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>"LARGE($F$9:$J$9,1) or LARGE($F$9:$J$9,2)"</formula>
     </cfRule>

--- a/PaperWork/UCI/uci_params.xlsx
+++ b/PaperWork/UCI/uci_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GACHON\Desktop\AiStudy\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8237A3FE-D4F1-4A7F-9E5C-E1F3085F105A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D5FC5E-EE44-498B-9F07-513B38FC2B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1725" yWindow="390" windowWidth="16695" windowHeight="15360" xr2:uid="{C6AA9A34-C728-4BB6-80D0-B8A90520AC12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6AA9A34-C728-4BB6-80D0-B8A90520AC12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -719,6 +719,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -729,12 +735,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BE6B95-A525-4FD1-898D-B0917CECD395}">
   <dimension ref="A1:K175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B127" workbookViewId="0">
-      <selection activeCell="K143" sqref="K143"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1150,10 +1150,10 @@
     </row>
     <row r="7" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="51"/>
       <c r="E8" s="49" t="s">
         <v>6</v>
       </c>
@@ -1311,10 +1311,10 @@
     <row r="14" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="55"/>
+      <c r="C18" s="51"/>
       <c r="E18" s="49" t="s">
         <v>1</v>
       </c>
@@ -1472,10 +1472,10 @@
     <row r="24" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="55"/>
+      <c r="C28" s="51"/>
       <c r="E28" s="49" t="s">
         <v>1</v>
       </c>
@@ -1633,10 +1633,10 @@
     <row r="34" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="55"/>
+      <c r="C38" s="51"/>
       <c r="E38" s="49" t="s">
         <v>1</v>
       </c>
@@ -1794,10 +1794,10 @@
     <row r="44" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="55"/>
+      <c r="C48" s="51"/>
       <c r="E48" s="49" t="s">
         <v>2</v>
       </c>
@@ -1974,10 +1974,10 @@
     <row r="54" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="58" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="54" t="s">
+      <c r="B58" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="55"/>
+      <c r="C58" s="51"/>
       <c r="E58" s="49" t="s">
         <v>2</v>
       </c>
@@ -2154,10 +2154,10 @@
     <row r="64" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="54" t="s">
+      <c r="B68" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="55"/>
+      <c r="C68" s="51"/>
       <c r="E68" s="49" t="s">
         <v>3</v>
       </c>
@@ -2334,10 +2334,10 @@
     <row r="74" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="78" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="54" t="s">
+      <c r="B78" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="55"/>
+      <c r="C78" s="51"/>
       <c r="E78" s="49" t="s">
         <v>3</v>
       </c>
@@ -2514,10 +2514,10 @@
     <row r="84" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="87" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="54" t="s">
+      <c r="B88" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C88" s="55"/>
+      <c r="C88" s="51"/>
       <c r="E88" s="49" t="s">
         <v>13</v>
       </c>
@@ -2675,10 +2675,10 @@
     <row r="94" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="98" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="54" t="s">
+      <c r="B98" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C98" s="55"/>
+      <c r="C98" s="51"/>
       <c r="E98" s="49" t="s">
         <v>13</v>
       </c>
@@ -2836,10 +2836,10 @@
     <row r="104" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="107" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="108" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="54" t="s">
+      <c r="B108" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C108" s="55"/>
+      <c r="C108" s="51"/>
       <c r="E108" s="49" t="s">
         <v>12</v>
       </c>
@@ -2997,10 +2997,10 @@
     <row r="114" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="117" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="118" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="54" t="s">
+      <c r="B118" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C118" s="55"/>
+      <c r="C118" s="51"/>
       <c r="E118" s="49" t="s">
         <v>12</v>
       </c>
@@ -3158,10 +3158,10 @@
     <row r="124" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="127" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="128" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="54" t="s">
+      <c r="B128" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C128" s="55"/>
+      <c r="C128" s="51"/>
       <c r="E128" s="49" t="s">
         <v>12</v>
       </c>
@@ -3319,10 +3319,10 @@
     <row r="134" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="137" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="138" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="54" t="s">
+      <c r="B138" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C138" s="55"/>
+      <c r="C138" s="51"/>
       <c r="E138" s="49" t="s">
         <v>6</v>
       </c>
@@ -3480,10 +3480,10 @@
     <row r="144" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="147" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="148" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="54" t="s">
+      <c r="B148" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C148" s="55"/>
+      <c r="C148" s="51"/>
       <c r="E148" s="49" t="s">
         <v>1</v>
       </c>
@@ -3641,10 +3641,10 @@
     <row r="154" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="157" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="158" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="54" t="s">
+      <c r="B158" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C158" s="55"/>
+      <c r="C158" s="51"/>
       <c r="E158" s="49" t="s">
         <v>1</v>
       </c>
@@ -3802,16 +3802,16 @@
     <row r="164" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="166" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="167" spans="2:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="50" t="s">
+      <c r="B167" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C167" s="51"/>
+      <c r="C167" s="53"/>
     </row>
     <row r="168" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="52" t="s">
+      <c r="B168" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C168" s="53"/>
+      <c r="C168" s="55"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B169" s="45" t="s">
@@ -3864,16 +3864,6 @@
     <row r="175" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B48:C48"/>
     <mergeCell ref="B128:C128"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B68:C68"/>
@@ -3882,6 +3872,16 @@
     <mergeCell ref="B98:C98"/>
     <mergeCell ref="B108:C108"/>
     <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F9:J13">

--- a/PaperWork/UCI/uci_params.xlsx
+++ b/PaperWork/UCI/uci_params.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GACHON\Desktop\AiStudy\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yc_hur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D5FC5E-EE44-498B-9F07-513B38FC2B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6AA9A34-C728-4BB6-80D0-B8A90520AC12}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8175" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="46">
   <si>
     <t>Default Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,11 +114,115 @@
     <t>Conclusion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>F1_score(avg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1_score(3rd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1_score(3rd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1_score(2nd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1st_Conv_filters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2nd_Conv_filters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1_score(2nd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1_score(1st)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1st_Conv_kernel_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1_score(avg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1_score(3rd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1_score(2nd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1_score(1st)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2nd_Conv_kernel_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1_score(3rd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM_Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1_score(1st)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -562,13 +665,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,13 +851,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1085,11 +1224,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BE6B95-A525-4FD1-898D-B0917CECD395}">
-  <dimension ref="A1:K175"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="E177" sqref="E177"/>
+    <sheetView tabSelected="1" topLeftCell="C197" workbookViewId="0">
+      <selection activeCell="L209" sqref="L209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3800,70 +3939,1452 @@
       </c>
     </row>
     <row r="164" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="166" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="167" spans="2:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="52" t="s">
+    <row r="167" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="168" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" s="51"/>
+      <c r="E168" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F168" s="9">
+        <v>32</v>
+      </c>
+      <c r="G168" s="9">
+        <v>64</v>
+      </c>
+      <c r="H168" s="9">
+        <v>128</v>
+      </c>
+      <c r="I168" s="9">
+        <v>256</v>
+      </c>
+      <c r="J168" s="10">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B169" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="3">
+        <v>256</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F169" s="20">
+        <v>205132</v>
+      </c>
+      <c r="G169" s="20">
+        <v>219180</v>
+      </c>
+      <c r="H169" s="20">
+        <v>247276</v>
+      </c>
+      <c r="I169" s="16">
+        <v>304468</v>
+      </c>
+      <c r="J169" s="34">
+        <v>415852</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B170" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" s="3">
+        <v>6</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F170" s="21">
+        <v>0.91190000000000004</v>
+      </c>
+      <c r="G170" s="21">
+        <v>0.90069999999999995</v>
+      </c>
+      <c r="H170" s="21">
+        <v>0.90680000000000005</v>
+      </c>
+      <c r="I170" s="1">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="J170" s="35">
+        <v>0.9012</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="3">
+        <v>3</v>
+      </c>
+      <c r="E171" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F171" s="21">
+        <v>0.89880000000000004</v>
+      </c>
+      <c r="G171" s="21">
+        <v>0.90649999999999997</v>
+      </c>
+      <c r="H171" s="21">
+        <v>0.90549999999999997</v>
+      </c>
+      <c r="I171" s="1">
+        <v>0.91169999999999995</v>
+      </c>
+      <c r="J171" s="35">
+        <v>0.91610000000000003</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B172" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" s="3">
+        <v>150</v>
+      </c>
+      <c r="E172" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F172" s="21">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="G172" s="21">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="H172" s="21">
+        <v>0.91490000000000005</v>
+      </c>
+      <c r="I172" s="1">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="J172" s="35">
+        <v>0.90510000000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B173" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="15">
+        <v>150</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F173" s="22">
+        <f>AVERAGE(F170:F172)</f>
+        <v>0.90390000000000015</v>
+      </c>
+      <c r="G173" s="22">
+        <f>AVERAGE(G170:G172)</f>
+        <v>0.8992</v>
+      </c>
+      <c r="H173" s="22">
+        <f>AVERAGE(H170:H172)</f>
+        <v>0.90906666666666658</v>
+      </c>
+      <c r="I173" s="17">
+        <f>AVERAGE(I170:I172)</f>
+        <v>0.91073333333333328</v>
+      </c>
+      <c r="J173" s="30">
+        <f>AVERAGE(J170:J172)</f>
+        <v>0.90746666666666664</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="177" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="178" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" s="51"/>
+      <c r="E178" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F178" s="9">
+        <v>32</v>
+      </c>
+      <c r="G178" s="9">
+        <v>64</v>
+      </c>
+      <c r="H178" s="9">
+        <v>128</v>
+      </c>
+      <c r="I178" s="9">
+        <v>256</v>
+      </c>
+      <c r="J178" s="10">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B179" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" s="3">
+        <v>256</v>
+      </c>
+      <c r="E179" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F179" s="20">
+        <v>172044</v>
+      </c>
+      <c r="G179" s="20">
+        <v>215852</v>
+      </c>
+      <c r="H179" s="16">
+        <v>303468</v>
+      </c>
+      <c r="I179" s="20">
+        <v>478700</v>
+      </c>
+      <c r="J179" s="34">
+        <v>829164</v>
+      </c>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B180" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="3">
+        <v>6</v>
+      </c>
+      <c r="E180" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F180" s="21">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="G180" s="21">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="H180" s="1">
+        <v>0.90980000000000005</v>
+      </c>
+      <c r="I180" s="21">
+        <v>0.91</v>
+      </c>
+      <c r="J180" s="35">
+        <v>0.90939999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B181" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" s="3">
+        <v>3</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" s="21">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="G181" s="21">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="H181" s="1">
+        <v>0.9052</v>
+      </c>
+      <c r="I181" s="21">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="J181" s="35">
+        <v>0.91010000000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B182" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" s="3">
+        <v>150</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F182" s="21">
+        <v>0.91090000000000004</v>
+      </c>
+      <c r="G182" s="21">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="H182" s="1">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="I182" s="21">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="J182" s="35">
+        <v>0.88180000000000003</v>
+      </c>
+    </row>
+    <row r="183" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B183" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="15">
+        <v>150</v>
+      </c>
+      <c r="E183" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F183" s="22">
+        <f>AVERAGE(F180:F182)</f>
+        <v>0.90586666666666671</v>
+      </c>
+      <c r="G183" s="22">
+        <f>AVERAGE(G180:G182)</f>
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="H183" s="17">
+        <f>AVERAGE(H180:H182)</f>
+        <v>0.9108666666666666</v>
+      </c>
+      <c r="I183" s="22">
+        <f>AVERAGE(I180:I182)</f>
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="J183" s="30">
+        <f>AVERAGE(J180:J182)</f>
+        <v>0.90043333333333342</v>
+      </c>
+    </row>
+    <row r="184" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="187" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="188" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C188" s="51"/>
+      <c r="E188" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F188" s="9">
+        <v>1</v>
+      </c>
+      <c r="G188" s="9">
+        <v>2</v>
+      </c>
+      <c r="H188" s="9">
+        <v>3</v>
+      </c>
+      <c r="I188" s="9">
+        <v>4</v>
+      </c>
+      <c r="J188" s="9">
+        <v>5</v>
+      </c>
+      <c r="K188" s="23">
+        <v>6</v>
+      </c>
+      <c r="L188" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B189" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" s="3">
+        <v>256</v>
+      </c>
+      <c r="E189" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F189" s="20">
+        <v>291948</v>
+      </c>
+      <c r="G189" s="20">
+        <v>294252</v>
+      </c>
+      <c r="H189" s="20">
+        <v>296556</v>
+      </c>
+      <c r="I189" s="20">
+        <v>298860</v>
+      </c>
+      <c r="J189" s="20">
+        <v>301164</v>
+      </c>
+      <c r="K189" s="32">
+        <v>303468</v>
+      </c>
+      <c r="L189" s="24">
+        <v>305772</v>
+      </c>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B190" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="3">
+        <v>128</v>
+      </c>
+      <c r="E190" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F190" s="21">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="G190" s="21">
+        <v>0.89370000000000005</v>
+      </c>
+      <c r="H190" s="21">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="I190" s="21">
+        <v>0.89980000000000004</v>
+      </c>
+      <c r="J190" s="21">
+        <v>0.90529999999999999</v>
+      </c>
+      <c r="K190" s="33">
+        <v>0.90180000000000005</v>
+      </c>
+      <c r="L190" s="25">
+        <v>0.91210000000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B191" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" s="3">
+        <v>3</v>
+      </c>
+      <c r="E191" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F191" s="21">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="G191" s="21">
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="H191" s="21">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="I191" s="21">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="J191" s="21">
+        <v>0.90810000000000002</v>
+      </c>
+      <c r="K191" s="33">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="L191" s="25">
+        <v>0.9143</v>
+      </c>
+    </row>
+    <row r="192" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B192" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" s="3">
+        <v>150</v>
+      </c>
+      <c r="E192" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F192" s="21">
+        <v>0.8639</v>
+      </c>
+      <c r="G192" s="21">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="H192" s="21">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="I192" s="21">
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="J192" s="21">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="K192" s="33">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="L192" s="25">
+        <v>0.90620000000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B193" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" s="15">
+        <v>150</v>
+      </c>
+      <c r="E193" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F193" s="22">
+        <f>AVERAGE(F190:F192)</f>
+        <v>0.89466666666666672</v>
+      </c>
+      <c r="G193" s="22">
+        <f>AVERAGE(G190:G192)</f>
+        <v>0.89896666666666658</v>
+      </c>
+      <c r="H193" s="22">
+        <f>AVERAGE(H190:H192)</f>
+        <v>0.90476666666666661</v>
+      </c>
+      <c r="I193" s="22">
+        <f>AVERAGE(I190:I192)</f>
+        <v>0.90556666666666674</v>
+      </c>
+      <c r="J193" s="22">
+        <f>AVERAGE(J190:J192)</f>
+        <v>0.90626666666666666</v>
+      </c>
+      <c r="K193" s="30">
+        <f>AVERAGE(K190:K192)</f>
+        <v>0.90916666666666668</v>
+      </c>
+      <c r="L193" s="31">
+        <f>AVERAGE(L190:L192)</f>
+        <v>0.91086666666666671</v>
+      </c>
+    </row>
+    <row r="194" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="197" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="198" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" s="57"/>
+      <c r="E198" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F198" s="9">
+        <v>1</v>
+      </c>
+      <c r="G198" s="9">
+        <v>2</v>
+      </c>
+      <c r="H198" s="9">
+        <v>3</v>
+      </c>
+      <c r="I198" s="9">
+        <v>4</v>
+      </c>
+      <c r="J198" s="9">
+        <v>5</v>
+      </c>
+      <c r="K198" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B199" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" s="3">
+        <v>256</v>
+      </c>
+      <c r="E199" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F199" s="20">
+        <v>237932</v>
+      </c>
+      <c r="G199" s="20">
+        <v>270700</v>
+      </c>
+      <c r="H199" s="20">
+        <v>303468</v>
+      </c>
+      <c r="I199" s="20">
+        <v>336236</v>
+      </c>
+      <c r="J199" s="16">
+        <v>369004</v>
+      </c>
+      <c r="K199" s="32">
+        <v>401772</v>
+      </c>
+    </row>
+    <row r="200" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B200" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" s="3">
+        <v>128</v>
+      </c>
+      <c r="E200" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F200" s="21">
+        <v>0.9022</v>
+      </c>
+      <c r="G200" s="21">
+        <v>0.9113</v>
+      </c>
+      <c r="H200" s="21">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="I200" s="21">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="J200" s="1">
+        <v>0.91959999999999997</v>
+      </c>
+      <c r="K200" s="33">
+        <v>0.90549999999999997</v>
+      </c>
+    </row>
+    <row r="201" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B201" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C201" s="3">
+        <v>6</v>
+      </c>
+      <c r="E201" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F201" s="21">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="G201" s="21">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="H201" s="21">
+        <v>0.89990000000000003</v>
+      </c>
+      <c r="I201" s="21">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="J201" s="1">
+        <v>0.90469999999999995</v>
+      </c>
+      <c r="K201" s="33">
+        <v>0.91839999999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B202" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" s="3">
+        <v>150</v>
+      </c>
+      <c r="E202" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F202" s="21">
+        <v>0.90429999999999999</v>
+      </c>
+      <c r="G202" s="21">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="H202" s="21">
+        <v>0.92230000000000001</v>
+      </c>
+      <c r="I202" s="21">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="J202" s="1">
+        <v>0.93289999999999995</v>
+      </c>
+      <c r="K202" s="33">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="203" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B203" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" s="15">
+        <v>150</v>
+      </c>
+      <c r="E203" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F203" s="22">
+        <f>AVERAGE(F200:F202)</f>
+        <v>0.90450000000000008</v>
+      </c>
+      <c r="G203" s="22">
+        <f>AVERAGE(G200:G202)</f>
+        <v>0.90720000000000001</v>
+      </c>
+      <c r="H203" s="22">
+        <f>AVERAGE(H200:H202)</f>
+        <v>0.90906666666666658</v>
+      </c>
+      <c r="I203" s="22">
+        <f>AVERAGE(I200:I202)</f>
+        <v>0.91236666666666666</v>
+      </c>
+      <c r="J203" s="17">
+        <f>AVERAGE(J200:J202)</f>
+        <v>0.9190666666666667</v>
+      </c>
+      <c r="K203" s="30">
+        <f>AVERAGE(K200:K202)</f>
+        <v>0.9079666666666667</v>
+      </c>
+    </row>
+    <row r="204" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="207" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="208" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C208" s="51"/>
+      <c r="E208" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F208" s="9">
+        <v>50</v>
+      </c>
+      <c r="G208" s="9">
+        <v>100</v>
+      </c>
+      <c r="H208" s="9">
+        <v>150</v>
+      </c>
+      <c r="I208" s="9">
+        <v>200</v>
+      </c>
+      <c r="J208" s="10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B209" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" s="3">
+        <v>256</v>
+      </c>
+      <c r="E209" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F209" s="20">
+        <v>156868</v>
+      </c>
+      <c r="G209" s="20">
+        <v>220168</v>
+      </c>
+      <c r="H209" s="16">
+        <v>303468</v>
+      </c>
+      <c r="I209" s="20">
+        <v>406768</v>
+      </c>
+      <c r="J209" s="34">
+        <v>530068</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B210" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" s="3">
+        <v>128</v>
+      </c>
+      <c r="E210" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F210" s="21">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="G210" s="21">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="H210" s="1">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="I210" s="21">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="J210" s="35">
+        <v>0.91369999999999996</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B211" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C211" s="3">
+        <v>6</v>
+      </c>
+      <c r="E211" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F211" s="21">
+        <v>0.91539999999999999</v>
+      </c>
+      <c r="G211" s="21">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="H211" s="1">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="I211" s="21">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="J211" s="35">
+        <v>0.90410000000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B212" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" s="3">
+        <v>3</v>
+      </c>
+      <c r="E212" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F212" s="21">
+        <v>0.90490000000000004</v>
+      </c>
+      <c r="G212" s="21">
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="H212" s="1">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="I212" s="21">
+        <v>0.90429999999999999</v>
+      </c>
+      <c r="J212" s="35">
+        <v>0.91190000000000004</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B213" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" s="15">
+        <v>150</v>
+      </c>
+      <c r="E213" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F213" s="22">
+        <f>AVERAGE(F210:F212)</f>
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="G213" s="22">
+        <f>AVERAGE(G210:G212)</f>
+        <v>0.90773333333333339</v>
+      </c>
+      <c r="H213" s="17">
+        <f>AVERAGE(H210:H212)</f>
+        <v>0.91153333333333331</v>
+      </c>
+      <c r="I213" s="22">
+        <f>AVERAGE(I210:I212)</f>
+        <v>0.90766666666666662</v>
+      </c>
+      <c r="J213" s="30">
+        <f>AVERAGE(J210:J212)</f>
+        <v>0.90990000000000004</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="217" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="218" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C218" s="51"/>
+      <c r="E218" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F218" s="9">
+        <v>50</v>
+      </c>
+      <c r="G218" s="9">
+        <v>100</v>
+      </c>
+      <c r="H218" s="9">
+        <v>150</v>
+      </c>
+      <c r="I218" s="9">
+        <v>200</v>
+      </c>
+      <c r="J218" s="10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B219" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" s="3">
+        <v>256</v>
+      </c>
+      <c r="E219" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F219" s="20">
+        <v>287768</v>
+      </c>
+      <c r="G219" s="20">
+        <v>295618</v>
+      </c>
+      <c r="H219" s="16">
+        <v>303468</v>
+      </c>
+      <c r="I219" s="20">
+        <v>311318</v>
+      </c>
+      <c r="J219" s="34">
+        <v>319168</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B220" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" s="3">
+        <v>128</v>
+      </c>
+      <c r="E220" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F220" s="21">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="G220" s="21">
+        <v>0.89929999999999999</v>
+      </c>
+      <c r="H220" s="1">
+        <v>0.90980000000000005</v>
+      </c>
+      <c r="I220" s="21">
+        <v>0.91090000000000004</v>
+      </c>
+      <c r="J220" s="35">
+        <v>0.91310000000000002</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B221" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C221" s="3">
+        <v>6</v>
+      </c>
+      <c r="E221" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F221" s="21">
+        <v>0.91090000000000004</v>
+      </c>
+      <c r="G221" s="21">
+        <v>0.90380000000000005</v>
+      </c>
+      <c r="H221" s="1">
+        <v>0.91010000000000002</v>
+      </c>
+      <c r="I221" s="21">
+        <v>0.88770000000000004</v>
+      </c>
+      <c r="J221" s="35">
+        <v>0.90939999999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B222" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222" s="3">
+        <v>3</v>
+      </c>
+      <c r="E222" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F222" s="21">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="G222" s="21">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="H222" s="1">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="I222" s="21">
+        <v>0.9002</v>
+      </c>
+      <c r="J222" s="35">
+        <v>0.9042</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B223" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" s="15">
+        <v>150</v>
+      </c>
+      <c r="E223" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F223" s="22">
+        <f>AVERAGE(F220:F222)</f>
+        <v>0.90736666666666677</v>
+      </c>
+      <c r="G223" s="22">
+        <f>AVERAGE(G220:G222)</f>
+        <v>0.90303333333333347</v>
+      </c>
+      <c r="H223" s="17">
+        <f>AVERAGE(H220:H222)</f>
+        <v>0.91083333333333327</v>
+      </c>
+      <c r="I223" s="22">
+        <f>AVERAGE(I220:I222)</f>
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="J223" s="30">
+        <f>AVERAGE(J220:J222)</f>
+        <v>0.90890000000000004</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="227" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="228" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C228" s="51"/>
+      <c r="E228" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F228" s="9">
+        <v>3</v>
+      </c>
+      <c r="G228" s="9">
+        <v>5</v>
+      </c>
+      <c r="H228" s="9">
+        <v>6</v>
+      </c>
+      <c r="I228" s="9">
+        <v>7</v>
+      </c>
+      <c r="J228" s="9">
+        <v>9</v>
+      </c>
+      <c r="K228" s="23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B229" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229" s="3">
+        <v>256</v>
+      </c>
+      <c r="E229" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F229" s="20">
+        <v>296556</v>
+      </c>
+      <c r="G229" s="20">
+        <v>301164</v>
+      </c>
+      <c r="H229" s="16">
+        <v>303468</v>
+      </c>
+      <c r="I229" s="16">
+        <v>305772</v>
+      </c>
+      <c r="J229" s="20">
+        <v>310380</v>
+      </c>
+      <c r="K229" s="32">
+        <v>317292</v>
+      </c>
+    </row>
+    <row r="230" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B230" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="3">
+        <v>128</v>
+      </c>
+      <c r="E230" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F230" s="21">
+        <v>0.89649999999999996</v>
+      </c>
+      <c r="G230" s="21">
+        <v>0.90659999999999996</v>
+      </c>
+      <c r="H230" s="1">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="I230" s="1">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="J230" s="21">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="K230" s="33">
+        <v>0.89810000000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B231" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231" s="3">
+        <v>3</v>
+      </c>
+      <c r="E231" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F231" s="21">
+        <v>0.91059999999999997</v>
+      </c>
+      <c r="G231" s="21">
+        <v>0.89970000000000006</v>
+      </c>
+      <c r="H231" s="1">
+        <v>0.90780000000000005</v>
+      </c>
+      <c r="I231" s="1">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="J231" s="21">
+        <v>0.92620000000000002</v>
+      </c>
+      <c r="K231" s="33">
+        <v>0.9113</v>
+      </c>
+    </row>
+    <row r="232" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B232" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" s="3">
+        <v>150</v>
+      </c>
+      <c r="E232" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F232" s="21">
+        <v>0.90459999999999996</v>
+      </c>
+      <c r="G232" s="21">
+        <v>0.90720000000000001</v>
+      </c>
+      <c r="H232" s="1">
+        <v>0.91010000000000002</v>
+      </c>
+      <c r="I232" s="1">
+        <v>0.92130000000000001</v>
+      </c>
+      <c r="J232" s="21">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="K232" s="33">
+        <v>0.91369999999999996</v>
+      </c>
+    </row>
+    <row r="233" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B233" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C233" s="15">
+        <v>150</v>
+      </c>
+      <c r="E233" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F233" s="22">
+        <f>AVERAGE(F230:F232)</f>
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="G233" s="22">
+        <f>AVERAGE(G230:G232)</f>
+        <v>0.90449999999999997</v>
+      </c>
+      <c r="H233" s="17">
+        <f>AVERAGE(H230:H232)</f>
+        <v>0.90926666666666678</v>
+      </c>
+      <c r="I233" s="17">
+        <f>AVERAGE(I230:I232)</f>
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="J233" s="22">
+        <f>AVERAGE(J230:J232)</f>
+        <v>0.90873333333333328</v>
+      </c>
+      <c r="K233" s="58">
+        <f>AVERAGE(K230:K232)</f>
+        <v>0.90770000000000006</v>
+      </c>
+    </row>
+    <row r="234" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="237" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="238" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C238" s="51"/>
+      <c r="E238" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F238" s="9">
+        <v>3</v>
+      </c>
+      <c r="G238" s="9">
+        <v>5</v>
+      </c>
+      <c r="H238" s="9">
+        <v>6</v>
+      </c>
+      <c r="I238" s="9">
+        <v>7</v>
+      </c>
+      <c r="J238" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B239" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C239" s="3">
+        <v>256</v>
+      </c>
+      <c r="E239" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F239" s="16">
+        <v>305772</v>
+      </c>
+      <c r="G239" s="20">
+        <v>371308</v>
+      </c>
+      <c r="H239" s="16">
+        <v>404076</v>
+      </c>
+      <c r="I239" s="20">
+        <v>436844</v>
+      </c>
+      <c r="J239" s="34">
+        <v>502380</v>
+      </c>
+    </row>
+    <row r="240" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B240" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C240" s="3">
+        <v>128</v>
+      </c>
+      <c r="E240" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F240" s="1">
+        <v>0.9234</v>
+      </c>
+      <c r="G240" s="21">
+        <v>0.89070000000000005</v>
+      </c>
+      <c r="H240" s="1">
+        <v>0.90720000000000001</v>
+      </c>
+      <c r="I240" s="21">
+        <v>0.92010000000000003</v>
+      </c>
+      <c r="J240" s="35">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B241" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C241" s="3">
+        <v>7</v>
+      </c>
+      <c r="E241" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F241" s="1">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="G241" s="21">
+        <v>0.91979999999999995</v>
+      </c>
+      <c r="H241" s="1">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="I241" s="21">
+        <v>0.89349999999999996</v>
+      </c>
+      <c r="J241" s="35">
+        <v>0.91439999999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B242" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242" s="3">
+        <v>150</v>
+      </c>
+      <c r="E242" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F242" s="1">
+        <v>0.91579999999999995</v>
+      </c>
+      <c r="G242" s="21">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="H242" s="1">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="I242" s="21">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="J242" s="35">
+        <v>0.9083</v>
+      </c>
+    </row>
+    <row r="243" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B243" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C243" s="15">
+        <v>150</v>
+      </c>
+      <c r="E243" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F243" s="17">
+        <f>AVERAGE(F240:F242)</f>
+        <v>0.91886666666666661</v>
+      </c>
+      <c r="G243" s="22">
+        <f>AVERAGE(G240:G242)</f>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="H243" s="17">
+        <f>AVERAGE(H240:H242)</f>
+        <v>0.91173333333333328</v>
+      </c>
+      <c r="I243" s="22">
+        <f>AVERAGE(I240:I242)</f>
+        <v>0.9042</v>
+      </c>
+      <c r="J243" s="30">
+        <f>AVERAGE(J240:J242)</f>
+        <v>0.90390000000000004</v>
+      </c>
+    </row>
+    <row r="244" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="247" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="248" spans="2:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B248" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C167" s="53"/>
-    </row>
-    <row r="168" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="54" t="s">
+      <c r="C248" s="53"/>
+    </row>
+    <row r="249" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C168" s="55"/>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B169" s="45" t="s">
+      <c r="C249" s="55"/>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B250" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C169" s="46">
+      <c r="C250" s="46">
         <v>256</v>
       </c>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B170" s="45" t="s">
+    <row r="251" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B251" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C170" s="46">
+      <c r="C251" s="46">
         <v>128</v>
       </c>
     </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B171" s="45" t="s">
+    <row r="252" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B252" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C171" s="46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B172" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C172" s="46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B173" s="45" t="s">
+      <c r="C252" s="46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B253" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253" s="46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B254" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C173" s="46">
+      <c r="C254" s="46">
         <v>150</v>
       </c>
     </row>
-    <row r="174" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B174" s="47" t="s">
+    <row r="255" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B255" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C174" s="48">
+      <c r="C255" s="48">
         <v>150</v>
       </c>
     </row>
-    <row r="175" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="256" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="26">
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B48:C48"/>
     <mergeCell ref="B128:C128"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B68:C68"/>
@@ -3872,34 +5393,34 @@
     <mergeCell ref="B98:C98"/>
     <mergeCell ref="B108:C108"/>
     <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F9:J13">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>"LARGE($F$9:$J$9,1) or LARGE($F$9:$J$9,2)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F139:J143">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>"LARGE($F$9:$J$9,1) or LARGE($F$9:$J$9,2)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F149:J153">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>"LARGE($F$9:$J$9,1) or LARGE($F$9:$J$9,2)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F139:J143">
+  <conditionalFormatting sqref="F159:J163">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>"LARGE($F$9:$J$9,1) or LARGE($F$9:$J$9,2)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F149:J153">
+  <conditionalFormatting sqref="F169:J173">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>"LARGE($F$9:$J$9,1) or LARGE($F$9:$J$9,2)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F159:J163">
+  <conditionalFormatting sqref="F179:J183">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>"LARGE($F$9:$J$9,1) or LARGE($F$9:$J$9,2)"</formula>
     </cfRule>
